--- a/Backend/assets/food_emission_factor.xlsx
+++ b/Backend/assets/food_emission_factor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farra\Documents\Materi Kuliah\Semester 5\Rekayasa Perangkat Lunak\Project Source Code\CalTerra\Backend\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4A83E8-8847-49A3-BDC2-3235A070C067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C00A72D-B24B-4734-811B-79D365DFBF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>food_diet</t>
-  </si>
-  <si>
     <t>factor</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>Vegan</t>
+  </si>
+  <si>
+    <t>food_type</t>
   </si>
 </sst>
 </file>
@@ -368,9 +368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -380,15 +378,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>7.19</v>
@@ -396,7 +394,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>6.93</v>
@@ -404,7 +402,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>3.39</v>
@@ -412,7 +410,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2.96</v>
@@ -420,7 +418,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2.85</v>
@@ -428,7 +426,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1.69</v>
